--- a/kieranJan20.xlsx
+++ b/kieranJan20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfraser\Desktop\DesktopSpring2016\MAI\Project\FinalPresentation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfraser\workspaceMars\Nabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="104">
   <si>
     <t>Battery fully charged.
 Unplug charger.</t>
@@ -33,222 +34,389 @@
     <t>com.android.systemui</t>
   </si>
   <si>
-    <t>8 updates need approval</t>
-  </si>
-  <si>
     <t>com.android.vending</t>
   </si>
   <si>
-    <t>ChatON, Google Play Newsstand, Ryanair - Cheapest Fares, Connect for Hotmail, and 4 more</t>
-  </si>
-  <si>
-    <t>You can start right swiping again. Go meet your match :)</t>
-  </si>
-  <si>
     <t>com.tinder</t>
   </si>
   <si>
-    <t>Successfully updated "Samsung Print Service Plugin"</t>
-  </si>
-  <si>
-    <t>Samsung Print Service Plugin</t>
-  </si>
-  <si>
-    <t>Message from James McConnell @ College lads</t>
-  </si>
-  <si>
     <t>com.whatsapp</t>
   </si>
   <si>
-    <t>James McConnell: Anywhere of preference tonight lads?</t>
-  </si>
-  <si>
-    <t>"TCDwifi-firststeps" disconnected</t>
-  </si>
-  <si>
     <t>android</t>
   </si>
   <si>
     <t>Network disconnected. Sign in again.</t>
   </si>
   <si>
-    <t>Katherine Walsh</t>
-  </si>
-  <si>
     <t>com.google.android.gm</t>
   </si>
   <si>
-    <t>AECOM Graduate Recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AECOM Graduate Recruitment
-Dear students,
-See below and attached which may be of interest to you.
-Please contact AECOM directly should you have any queries.
-AECOM are looking to recruit graduates for our Transportation and Building Service teams in Dublin. We are seeking applicants with a masters/degree from all engineering disciplines and from other analytical backgrounds such as mathematics, economics and geography. Further information is included in the attached leaflet and applicants can apply via http://www.aecom.com/uk-ireland-graduate-careers/
-Regards
-Shane
-Shane Dunny
-BAI MA MSc
-Associate Director, Transportation
-shane.dunny@aecom.com&lt;mailto:shane.dunny@aecom.com&gt;
-AECOM
-Adelphi Plaza
-George's Street Upper
-Dún Laoghaire, County Dublin, Ireland
-T +353-1-238-3100
-aecom.com&lt;http://www.aecom.com&gt;
-Built to deliver a better world
-LinkedIn&lt;http://www.linkedin.com/company/aecom_15656&gt;  Twitter&lt;http://twitter.com/AECOM&gt;  Facebook&lt;http://www.facebook.com/AecomTechnologyCorporation&gt;  Instagram&lt;http://instagram.com/aecom&gt;
-This e-mail and any attachments contain AECOM confidential information that may be proprietary or privileged. If you receive this message in error or are not the intended recipient, you should not retain, distribute, disclose or use any of this information and you should destroy the e-mail and any attachments or copies
+    <t>flipboard.app</t>
+  </si>
+  <si>
+    <t>HackerRank Team</t>
+  </si>
+  <si>
+    <t>NP Apache User</t>
+  </si>
+  <si>
+    <t>Message from Aislinn</t>
+  </si>
+  <si>
+    <t>not significant</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>close friend</t>
+  </si>
+  <si>
+    <t>colleague</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>tinder</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>flipboard</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Unhappy</t>
+  </si>
+  <si>
+    <t>stranger</t>
+  </si>
+  <si>
+    <t>"STARBUCKS-FREE-WIFI" disconnected</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>New Tinder message from Niamh</t>
+  </si>
+  <si>
+    <t>Niamh sent you a new message</t>
+  </si>
+  <si>
+    <t>gradireland</t>
+  </si>
+  <si>
+    <t>Message from Alan Donoghue @ Another social network</t>
+  </si>
+  <si>
+    <t>Trinity Events</t>
+  </si>
+  <si>
+    <t>Successfully updated "Flipboard: Your News Magazine"</t>
+  </si>
+  <si>
+    <t>Flipboard: Your News Magazine</t>
+  </si>
+  <si>
+    <t>Successfully updated "NFC Tasks"</t>
+  </si>
+  <si>
+    <t>NFC Tasks and Flipboard: Your News Magazine</t>
+  </si>
+  <si>
+    <t>Successfully updated "NFC Tools"</t>
+  </si>
+  <si>
+    <t>NFC Tools, NFC Tasks, and Flipboard: Your News Magazine</t>
+  </si>
+  <si>
+    <t>Successfully updated "Guitar Tuner Free - GuitarTuna"</t>
+  </si>
+  <si>
+    <t>Guitar Tuner Free - GuitarTuna, NFC Tools, NFC Tasks, and Flipboard: Your News Magazine</t>
+  </si>
+  <si>
+    <t>Still searching for the best graduate opportunity?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still searching for the best graduate opportunity?
+Still searching for the best graduate opportunity?
+This was sent to kfraser@tcd.ie because you signed up at gradireland
+Sign in to my account
+…then look no further! Joining the graduate programme of the No. 1 professional services firm in Ireland as voted by you, the students, could be your opportunity of a lifetime. 
+We offer lots of opportunity…
+Opportunity to get client exposure to some of the world’s biggest companies 
+Opportunity to grow as an individual and to build lasting relationships 
+Opportunity to see the world while still doing what you love outside of work. 
+But don’t just take our word for it, check out our video here
+To find out more information and to apply for graduate opportunities to start Autumn 2016, in Assurance, Risk Assurance Solutions (RAS), Tax and Financial Effectiveness across our Dublin, Limerick and Galway offices click here www.pwc.ie/graduate
+We look forward to hearing from you. 
+PwC Graduate Recruitment Team
+ireland.graduate@ie.pwc.com
++353 1 792 8550
+Find out more here &gt;&gt;
+Manage my details
+Graduate job search
+Get careers advice
+Careers fair
+Please do not reply to this e-mail. 
+This e-mail was sent to kfraser@tcd.ie as a registered user of gradireland.com and you agreed to receive jobs by e-mail based on information in your profile. 
+To change your e-mail options click here. To unsubscribe from jobs by email click here. 
+©2014 AHECS/GTI Ireland | GTI Ireland, 14–16 Lord Edward Street, Dublin GTI Ireland is a division of GTI Media Ltd. 
+Company Reg. no. 2347472. 
+Registered in England &amp; Wales. Registered office: The Fountain Building, Howbery Park, Benson Lane, Wallingford, Oxfordshire OX10 8BA UK. 
+gradireland – the official graduate careers website in Ireland, north and south. Brought to you by your careers service.
 </t>
   </si>
   <si>
-    <t>New Tinder message from Olivia</t>
-  </si>
-  <si>
-    <t>Olivia sent you a new message</t>
-  </si>
-  <si>
-    <t>Message from Mick @ College lads</t>
-  </si>
-  <si>
-    <t>Mick: I could do 8 lads</t>
-  </si>
-  <si>
-    <t>LinkedIn Updates</t>
-  </si>
-  <si>
-    <t>Congratulate Declan J. Cole on the work anniversary</t>
-  </si>
-  <si>
-    <t>Congratulate Declan J. Cole on the work anniversary
-See what's new with your LinkedIn connections
-Kieran Fraser
-What are your connections up to?
-See all updates
-Declan J. Cole is celebrating 1 year at PwC
-Congratulate
-NEW CONNECTIONS
-Adrien Guguin has 3 new connections
-Johnny Galway is now connected to Dhaval Parekh
-Dhaval Parekh
-Associate at BlackRock
-Michael Fanning is now connected to John Pedreschi
-John Pedreschi
-Buying Director at Ogalas Ltd
-Pavel Gusev is now connected to Sean O'Donohue
-Sean O'Donohue
-Data Recruitment Consultant at Stelfox IT Recruitment
-Zanella David is now connected to Georgios Stathis
-Georgios Stathis
-Full Time - Software Engineer at AKROS AG
-Hitesh Tewari is now connected to Sive Brady-Sakac
-Sive Brady-Sakac
-Student at Trinity College Dublin
-WHAT YOUR NETWORK IS SAYING
-David Maguire shared an article
-The innovation of the Irish
-Irish people have no idea how truly innovative they really are and how for its size this island punches way above its...
-View post
-Pavel Gusev shared an article
-"Accenture Analytics Delivery practice in Dublin is hiring ! VA Consultant https://lnkd.in/e4PhUFD VA Manager..."
-Visual Analytics Consultant
-Job Listing
-View post
-Pavel Gusev shared an update
-"Accenture Analytics Delivery practice in Dublin is hiring ! We are currently recruiting for a number of key roles within our..."
-Like  ·  Comment
-Change frequency  |  Unsubscribe  |  Help
-You are receiving Network Updates Digest emails.
-This email was intended for Kieran Fraser (Computer Engineering MAI Student at Trinity College, Dublin). Learn why we included this.
-© 2016 LinkedIn Ireland, Wilton Plaza, Wilton Place, Dublin 2. LinkedIn is a registered business name of LinkedIn Ireland. LinkedIn and the LinkedIn logo are registered trademarks of LinkedIn.</t>
-  </si>
-  <si>
-    <t>Read "Huge Number Of Critical Flaws Revealed In Apple, Android, Linux And Oracle Systems"</t>
-  </si>
-  <si>
-    <t>flipboard.app</t>
-  </si>
-  <si>
-    <t>Graduate Opportunities - First Derivatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graduate Opportunities - First Derivatives
-Dear SS/MAI Students,
-See below email from a Biomedical TCD Engineering graduate regarding First Derivative Graduate Opportunities which may be of interest to you.
-My name is Marcus Clarke and I graduated from biomedical engineering in Trinity in 2014. I currently work for First Derivatives which is a leading provider of software and consulting to the capital markets industry. The company is rapidly expanding and this year they are looking to hire a large number of graduates for both their consulting and programming streams.
-The company actively look to hire engineering students for their analytical ability, creative thinking and problem solving skills. Just because you might not have come from a computer engineering background it doesn't mean you can't/shouldn't apply for the programming disciplines, as i said, I studied biomedical engineering but am now working as a kdb+ programmer. A The same also goes for applying to the financial consulting disciplines.
-One of the great things about working for FD is that even though they are based in Newry very few people actually stay working there. 26 people started with me and they are now spread across, New York, Chicago, London, Singapore, Hong Kong, Toronto, Stockholm, Dublin and only 2 left in Newry (out of choice). Other potential destinations are Montreal, Sydney, Tokyo, Munich, Boston, Moscow (apparently it's unreal craic). I myself have worked in London, Singapore and I'm currently in Hong Kong now
-I'm not going to talk much more about it here but I urge you to look through the link below and if it's something you might be interested in or just want more information then just drop me an email. Always good to have options.
-http://www.firstderivatives.com/Graduate_Homepage_New.asp
-Hope to hear from you and possibly working with you soon.
-Kind regards,
-Marcus
-</t>
-  </si>
-  <si>
-    <t>HackerRank Team</t>
-  </si>
-  <si>
-    <t>Welcome to HackerRank</t>
-  </si>
-  <si>
-    <t>Welcome to HackerRank
-Hello,
-Welcome to HackerRank! We are building an engaged community of problem solvers in different domains of Computer Science like AI, Algorithms, Machine Learning, functional programming, etc.
-Hugs or bugs, please let us know by replying to this e-mail. Welcome again!
-Happy hacking!
-HackerRank Team
-You are receiving this email because you have email notifications enabled on HackerRank account.
-You can update your e-mail preferences here. In any case, we won't send you unnecessary e-mails.
-Copyright © 2016 HackerRank (127 Lytton Ave, Palo Alto, CA 94301), All rights reserved.
-.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>com.facebook.orca</t>
-  </si>
-  <si>
-    <t>Yes, I always try to think on the plan, slow it down and break it down. ðJudging my past year resolutions (which were mostly wishes) they all complete suddenly and unexpectedly for me. They come so naturally that I realise I did them only at the end of the year ð and me getting into  a foreign university is another discus</t>
-  </si>
-  <si>
-    <t>Vivek Ravisankar</t>
-  </si>
-  <si>
-    <t>Thank you for signing up - Founder, HackerRank</t>
-  </si>
-  <si>
-    <t>Thank you for signing up - Founder, HackerRank
-Hello,
-Hope you're doing fantastic! I noticed that you just signed up at HackerRank, and I wanted to personally thank you. I'm the founder/CEO and my goal is to offer the best experience possible to users.
-HackerRank is here to create a community of developers who love to solve programming challenges across computer science domains and in over 30 programming languages. We have challenges spanning Algorithms, Artificial Intelligence, Machine Learning, and many more! You'll solve a structured set of challenges that take you through the basics to real-world in every domain in a way that is fun but also helps you become the best developer you can be. Solve at your own pace or compete in one of our contests.
-To complement that, HackerRank partners with top tech companies to offer exclusive jobs to our developer community. Solve a company's code challenge from our Jobs section and you're guaranteed a response from that company within five business days.
-Thanks again for signing up, and I'd love to hear any feedback you have on HackerRank (good or bad). Have an awesome day and happy coding!
-Cheers,
-Vivek</t>
-  </si>
-  <si>
-    <t>Irina Maximova: Yeah, I sometimes do yoga here at the same gym at the group classes. We don't do anything extraordinary though…</t>
-  </si>
-  <si>
-    <t>Yeah, I sometimes do yoga here at the same gym at the group classes. We don't do anything extraordinary though ð I really like the result, you definitely feel the harmony with your body and can sense it better. In contrast to my love to the result I really hate the process ð it's boring and static 95% of the time. I always think I could have spend my time more productive rather than standing for 10 minutes upside down with my bottom pointing to the cei</t>
-  </si>
-  <si>
-    <t>NP Apache User</t>
-  </si>
-  <si>
-    <t>ORI LG06/08 Small Group Meeting Room 5 Booking Reference 160120175346_kfraser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORI LG06/08 Small Group Meeting Room 5 Booking Reference 160120175346_kfraser
-ORI LG06/08 Small Group Meeting Room 5
-Booking Reference: 160120175346_kfraser
+    <t>28:concierge
+(hi) Hello, we're Skype. We're here to give you hints, tips,…</t>
+  </si>
+  <si>
+    <t>com.skype.raider</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>(hi) Hello, we're Skype. We're here to give you hints, tips, and a helping hand.
+We'll try our best to be useful, but keep in mind this is just a bot and we'll get more helpful over time.
+See our FAQ to learn more and visit support for general help.</t>
+  </si>
+  <si>
+    <t>ORI LG06/08 Small Group Meeting Room 1 Booking Reference 160129134204_kfraser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORI LG06/08 Small Group Meeting Room 1 Booking Reference 160129134204_kfraser
+ORI LG06/08 Small Group Meeting Room 1
+Booking Reference: 160129134204_kfraser
 Requested by: Kieran Fraser (kfraser) bai5
 Booking request was successful
-20 Jan 2016 18:00-20:00 Kieran Fraser [bai5]
+29 Jan 2016 14:00-16:00 Kieran Fraser [bai5]
+Bookings viewable online at
+https://www.scss.tcd.ie/cgi-bin/webcal/sgmr/sgmr1.pl
+To cancel this booking visit
+https://www.scss.tcd.ie/cgi-bin/webcal/sgmr/sgmr1.cancel.pl
+NB: Please retain this email as proof that your booking has been successful.
+Please read:
+ORI LG06/08 Small Group Meeting Rooms Booking Regulations:
+https://support.scss.tcd.ie/data/regulations/SGMR_Booking_Regulations.pdf
+</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>FW: Payday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FW: Payday
+No Images? Click here
+Hey!
+January just dragged on forever, didn't it?! I've treated myself to a long overdue manicure right after work! I used the WhatSalon app to book. They've got some amazing salons on there. I had to choose between getting a blowdry or getting my nails done! After a month of sitting at my desk, I went for the latter :-)
+I know that once you try WhatSalon, you will love it. They even give me a code to share with my friends. Just enter "PAYDAY10" when you're checking out and get 10% off your service! Enjoy!
+Maria x
+LAUNCH WHATSALON NOW!
+WhatSalon, 15 Bridge Street, Cork City
+You're recieving this because WhatSalon is clearly awesome
+Unsubscribe
+</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin - Computer Science - DreamSpark Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Receipt: 100449718883 	         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Receipt: 100449718883 	         
+** This is an automated message -- please do not reply as you will not receive a response. ** 
+Dear Kieran Fraser, 
+Thank you for your order. 
+Full details, including any required product keys and activation codes and/or download links are available online in Your Account. 
+If you are redirected to your institution's internal sign-in page, use your institution credentials. 
+Order Summary
+Order Information
+Order Number:
+100449718883
+Date Ordered:
+2016-01-29 1:54 PM
+GMT Standard Time
+Name:
+Kieran Fraser
+Email:
+kfraser@tcd.ie
+Items  (All prices are in Euros)
+Start Download
+Amount
+1.  Visual Studio Community 2015 32-bit (English) - DreamSpark - Download
+€0.00
+Instructions: 
+Burning the .ISO/.IMG file onto a disc
+Subtotal:
+€0.00
+Taxes:
+€0.00
+Total:
+€0.00
+Please ensure all information listed above is correct and keep this receipt for your records.
+If you have any questions, please see the Help page of the WebStore. 
+http://e5.onthehub.com/d.ashx?s=7y01vfmhh5 
+Thank you, 
+Trinity College Dublin - Computer Science - DreamSpark Premium 
+http://e5.onthehub.com/d.ashx?s=x2h6rhk484 
+This message from Microsoft is an important part of a program, service, or product that you or your company purchased or participate in.
+Microsoft respects your privacy. Please read our Privacy Statement.
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager.
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052
+</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>You're on multiple Slack teams</t>
+  </si>
+  <si>
+    <t>You're on multiple Slack teams
+You're on multiple Slack teams!
+We're happy you're enjoying Slack. You just created a new Slack team called NetworkApplications.
+Your email address, kfraser@tcd.ie, is already in use on one or more other teams. If you didn't mean to create NetworkApplications, you can delete it here.
+Otherwise, ignore this email.
+Thanks!
+- The Team at Slack
+You may copy/paste this link into your browser:
+https://networkapplications.slack.com/admin/delete
+Made by Slack Technologies, Inc  •  Our Blog
+155 5th Street, 6th Floor  •  San Francisco, CA  •  94103
+Unsubscribe from any communication about this invitation</t>
+  </si>
+  <si>
+    <t>Alan Donoghue: 2015, its has the most support for js applications</t>
+  </si>
+  <si>
+    <t>Hostelworld.com</t>
+  </si>
+  <si>
+    <t>We've missed you - here is $5 towards your next trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've missed you - here is $5 towards your next trip
+Let's get trip planning
+view web version →
+Hi Kieran
+We've missed you here at Hostelworld so we have added $5* to your account towards your next trip.
+It's time to book your next trip - this credit expires on 23 February, 2016 at 23:59 GMT
+BOOK NOW
+Happy travels from Hostelworld
+*Please note this credit is only deductible against your Hostelworld.com deposit.
+Download the mobile app
+Connect with us
+My World | Terms &amp; Conditions | Privacy &amp; Security Statement  
+Edit preferences | Unsubscribe  
+© 1999–2016 Hostelworld.com Limited, One Central Park, Leopardstown, Dublin.
+Prices quoted are based on per person sharing, were correct at time of production and are subject to availability.
+Add hostelworld@bmail.hostelworld.com to your address book to ensure you receive the Hostelworld.com newsletter.
+This email was sent to kfraser@tcd.ie by Hostelworld.com.
+</t>
+  </si>
+  <si>
+    <t>I did :) did u? I am just on the train home to Galway now. One home to another home.</t>
+  </si>
+  <si>
+    <t>IT Services Messages</t>
+  </si>
+  <si>
+    <t>IT Services Survey: Win an Apple TV</t>
+  </si>
+  <si>
+    <t>IT Services Survey: Win an Apple TV
+What do you think about the Wi-Fi Network or the MyZone Email Service at Trinity?  It's your last chance to have your say about the IT services provided for you at Trinity and to win an Apple TV! 
+We have extended the closing date of the IT Services Satisfaction Survey 2016 until Monday, 2nd February, as we really do want you to tell us what you think.  Help make the IT services at Trinity better for you to use - take our survey now by following this link:
+https://www.surveymonkey.com/r/IT-Services-Satisfaction-Survey-Students
+When you take the survey you can add yourself to a draw to win an Apple TV.
+Kind regards,
+IT Services
+IT Services
+Trinity College Dublin
+IT Services Website: www.tcd.ie/itservices/training/
+IT Services News Twitter feed: www.twitter.com/tcditservices</t>
+  </si>
+  <si>
+    <t>Read "India's external affairs ministry criticises Bollywood film 'Airlift' for factual inaccuracies"</t>
+  </si>
+  <si>
+    <t>Alan Donoghue</t>
+  </si>
+  <si>
+    <t>adonoghuTcd added you to facebookQ_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adonoghuTcd added you to facebookQ_A
+You can now push to this repository.
+---
+View it on GitHub:
+https://github.com/adonoghuTcd/facebookQ_A
+</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>[GitHub] Subscribed to adonoghuTcd/facebookQ_A notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[GitHub] Subscribed to adonoghuTcd/facebookQ_A notifications
+Hey there, we’re just writing to let you know that you’ve been automatically subscribed to a repository on GitHub.
+adonoghuTcd/facebookQ_A created by adonoghuTcd
+https://github.com/adonoghuTcd/facebookQ_A
+You’ll receive notifications for all issues, pull requests, and comments that happen inside the repository. If you would like to stop watching this repository, you can manage your settings here:
+https://github.com/adonoghuTcd/facebookQ_A/subscription
+You can unwatch this repository immediately by clicking here:
+https://github.com/adonoghuTcd/facebookQ_A/unsubscribe_via_email/AGMycgsBqBwhO_c7e9p3ED3f9KD9Q2vqks5pe4KNgaJpZM4DBTNJ
+You were automatically subscribed because you’ve been given push access to the repository.
+Thanks!
+</t>
+  </si>
+  <si>
+    <t>ORI LG06/08 Small Group Meeting Room 5 Booking Reference 160129164332_kfraser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORI LG06/08 Small Group Meeting Room 5 Booking Reference 160129164332_kfraser
+ORI LG06/08 Small Group Meeting Room 5
+Booking Reference: 160129164332_kfraser
+Requested by: Kieran Fraser (kfraser) bai5
+Booking request was successful
+29 Jan 2016 17:00-19:00 Kieran Fraser [bai5]
 Bookings viewable online at
 https://www.scss.tcd.ie/cgi-bin/webcal/sgmr/sgmr5.pl
 To cancel this booking visit
@@ -260,388 +428,281 @@
 </t>
   </si>
   <si>
-    <t>Sandra Kavanagh</t>
-  </si>
-  <si>
-    <t>FW: STEM Students: Full Scholarship Opportunity on the ESTEEM programme (Naughton Foundation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FW: STEM Students: Full Scholarship Opportunity on the ESTEEM programme (Naughton Foundation)
-Reminder… open day tomorrow at 5.30pm
-This is a fantastic opportunity, I urge all interested to attend.
-From: Sandra Kavanagh 
-Sent: 03 December 2015 13:32
-Subject: STEM Students: Full Scholarship Opportunity on the ESTEEM programme (Naughton Foundation)
-Applications for the Naughton Fellowships to ESTEEM Masters at the University of Notre Dame are now open.
-To help with the process, the Naughton Foundation is holding its annual Esteem open night on:
-Time:                                    5.30pm
-Date:                                     Thursday, 21st January, 2016
-Location:                             O'Connell House, Merrion Square
-If you are interested in attending the open night, please pre-register by emailing: rachael@thenaughtonfoundation.ie (include your name, University name and the course you are studying).
-Last year, two students from TCD qualified for a full scholarship. (And, to note, a first in exams is not a prerequisite). Their advice included:
-·         Make a start on your application over the Christmas break;
-·         Approach your preferred referees in plenty of time;
-·         Attend the Esteem open night to pick up final tips and hints;
-·         Then finalise and submit your application before the deadline of 26th Jan 2016.
-This is a high-quality Entrepreneurial Masters programme, and we encourage all those interested to submit an application
-Further information and online application can be found at: http://esteem.nd.edu/admissions/naughton-fellowship/
-Best of luck
-Sandra
-Sandra Kavanagh
-Faculty Administrator
-Faculty of Engineering, Mathematics and Science
-1st Floor, 27-29 Westland Row
-Trinity College Dublin, the University of Dublin
-Dublin 2, Ireland.
-+353 1 896 1474
-kavans14@tcd.ie
-www.tcd.ie
-From: Sandra Kavanagh 
-Sent: 19 October 2015 12:34
-Subject: STEM Students: Full Scholarship Opportunity in the USA, ESTEEM, Naughton
-Interested in a full masters scholarship to the USA? Are you coming from an undergraduate degree in Science, Technology, Engineering or Maths? ESTEEM is an 11 month Masters program in the University of Notre Dame, in which full academic scholarships, plus living stipend, are offered to Irish students with a STEM background.
-You're invited to come along and hear more about this opportunity, how to apply, and ask questions of current scholarship students, on Wednesday 4th November form 6.30-7.30pm.  Food will be served and all are welcome.
-Location:             Joly Lecture Theatre, Hamilton Building, TCD
-Date:                     Wednesday 4th November
-Time:                    6:30-7:30pm
-Find out more about the Naughton Scholarship at
-http://naughton.nd.edu/
-Find out more about the ESTEEM Program at
-http://esteem.nd.edu/
-Please contact:
-Paul Mahony: mahonyp@tcd.ie
-Jenny Lardner: lardnerj@tcd.ie
-with any questions.
-Looking forward to seeing you! Wednesday 4th November, 18:30-19:30 in the Joly Lecture Theatre.
+    <t>That was handy for you so! I will be happy when I get out of work tonight. Enjoy your weekend too. Hopefully I see you soon :)</t>
+  </si>
+  <si>
+    <t>Rain rain go away ... : What's On in the Careers Advisory Service (01/02/16) (ssother)</t>
+  </si>
+  <si>
+    <t>Rain rain go away ... : What's On in the Careers Advisory Service (01/02/16) (ssother)
+What’s On in the Careers Advisory Service 
+Events from Monday, 1st February 2016
+---
+Events (http://www.tcd.ie/Careers/events) Keep checking this website as locations &amp; times can change.
+CAS Workshops / Talks
+01/02/2016  |  Career Conversations - SS EUROPEAN STUDIES  |  12noon Rm 3.19 Aras an Phiarsaigh  |  SS European Studies students.
+02/02/2016  |  Finding Post Primary Teaching Work in Ireland  |  3.00 - 4.30pm, Long Room Hub  |  PME class.
+02/02/2016  |  Drop-In CV / LinkedIn Profile Clinic  |  10.00 - 11.30am, Careers Advisory Service  |  First 20 TCD students registered on day.
+03/02/2016  |  PMRC: CV Preparation for PhDs  |  11.00am - 1.00pm Rm 3.18, 7-9 South Leinster St.  |  PhD students of any discipline. Register.
+03/02/2016  |  Career Conversations - JS FRENCH TSM  |  1.00 -2.00pm, Rm 5039 Arts Building  |  JS TSM French students.
+04/02/2016  |  Career Conversations - JS FRENCH TSM  |  1.00 - 2.00pm, Rm 4018 Arts Building  |  JS TSM French Students.
+09/02/2016  |  Finding Post Primary Teaching Work in England - CV &amp; Interviews  |  10.00 - 11.00am : Rm 3.19 Aras an Phiarsiagh11.00am - 12noon : Rm 4.03 Aras an Phiarsaigh (repeated)  |  PME Class.
+10/02/2016  |  PMRC: Interview Skills for PhDs  |  11.00am - 1.00pm, Rm 3.18, 7-9 South Leinster St.  |  PhD students of any discipline. Register.
+10/02/2016  |  Drop-In CV / LinkedIn Profile Clinic (Postgrads Only)  |  2.15 - 3.45pm, Careers Advisory Service  |  Postgraduate students only.
+10/02/2016  |  Interview Skills for Postgrads (Postgraduate Week)  |  1.00 - 2.00pm, Rm 206, 7-9 South Leinster St  |  Postgraduate Students - all disciplines.
+11/02/2016  |  Personal Statements for Postgraduate Applications  |  2.00 - 3.00pm, Rm 201, 7-9 South Leinster St.  |  Any interested TCD student.
+11/02/2016  |  Networking Tips for Postgrads (Postgraduate Week)  |  1.00 - 2.00pm, Rm 206, 7-9 South Leinster St  |  Postgraduate Students - all disciplines.
+12/02/2016  |  CVs &amp; Covering Letters for Postgrads (Postgraduate Week)  |  1.00 - 2.00pm, Rm 206, 7-9 South Leinster St  |  TCD Postgraduate students - all disciplines.
+17/02/2016  |  PMRC: Networking for PhDs  |  11.00am - 1.00pm, Rm 3.18, 7-9 South Leinster St.  |  PhD students of any discipline. Register.
+Employer Events / Presentations   Many employers need you to register to attend their event - see www.tcd.ie/Careers/events for more details.
+31/01/2016  |  Closing date for 'McKinsey and Company Insight Programme'  -  McKinsey &amp; Company, Inc. Ireland  |  14 - 16 April 2016, Austria  |  All PhD students, Post-Docs and Scholars graduating in 2016 or 2017. Register
+02/02/2016  |  Information Stand  -  PricewaterhouseCoopers  |  11.00am - 1.00pm, Arts Building Concourse  |  All interested.
+02/02/2016  |  PwC Presentation  -  PricewaterhouseCoopers  |  1.00 - 2.00pm, Robert Emmet Lecture Theatre  |  All interested.
+04/02/2016  |  Legal Speed Networking Event   -  Arthur Cox  |  5.00pm, KC Peaches, Nassau Street  |  Law &amp; Non-Law Students.
+04/02/2016  |  Recruitment Stand  -  Deloitte  |  11.30am - 2.00pm, Arts Building Concourse  |  All interested in their Summer Internship Programme.
+09/02/2016  |  Presentation  -  Camp Counselors USA  |  1.00pm, Emmet Lecture Theatre, Arts Bldg  |  All interested.
+09/02/2016  |  Recruitment Day (hosted by French Society)  -  Vacansoleil  |  from 2.00pm, Rm 3.19 Aras an Phiarsaigh  |  TCD student of French, German or Italian. Register
+14/02/2016  |  Closing date for 'BCG Corporate Finance Unlimited'  -  Boston Consulting Group (BCG)  |  March 18-20 2016, near Paris  |  Students studying finance, economics, business or related. Register
+17/02/2016  |  Presentation  -  Citi [Dublin]  |  6.00pm, Rm 2.03 Aras an Phiarsaigh  |  To be advised.
+25/02/2016  |  NYC Programme Presentation  -  Mountbatten Institute   |  6.00pm, Rm 4050A, Arts Building  |  Final Years / Graduates, any degree discipline. Register
+01/04/2016  |  Closing date for 'London Insight Programme 2016'  -  Boston Consulting Group (BCG)  |  8-9 September 2016, St Albans, Hertfordshire, UK  |  Students in 1st year of University. Register
+10/04/2016  |  Closing date for 'ECON Women's Day'  -  E.ON Inhouse Consulting GmbH  |  28-29 April 2016, Essen, Germany  |  Female Master, MBA and PhD students. Register
+17/04/2016  |  Closing date for 'ECON CaseMatch Workshop'  -  E.ON Inhouse Consulting GmbH  |  19-20th Mary 2016, Essen, Germany  |  Master's, MBA &amp; PhD students. Register
+Annual Fairs / Events
+04/02/2016  |  Student Summit 2016  |  4.00pm - 9.00pm, The Printworks, Dublin Castle.  |  All interested. Register.
+05/02/2016  |  EU Studies Fair  |  5th &amp; 6th February 2016, Brussels  |  All interested in EU studies programs. Register.
+10/02/2016  |  postgradireland Further Study Fair  |  12.00noon - 4.30pm Serpentine Hall, RDS, Ballsbridge, Dublin 4  |  All interested.
+12/02/2016  |  Professional Studio Headshots by DUPA  |  10.00am - 4.00pm The Atrium  |  All TCD students. Register.
+16/02/2016  |  GRADchances STEM Fair   |  12:00noon - 16:00 Industries</t>
+  </si>
+  <si>
+    <t>World CodeSprint starts now</t>
+  </si>
+  <si>
+    <t>World CodeSprint starts now
+Begin coding
+Hi Kieran,
+World CodeSprint starts now. You have 24 hours to solve 8 algorithmic challenges. The clock is ticking so start coding.
+Start coding now
+Happy coding,
+The HackerRank team
+You are receiving this email because you have email notifications enabled on HackerRank account. Unsubscribe from this promotion here. Copyright © 2015 HackerRank (2300 Geng Road, Suite 250 Palo Alto, California 94303), All rights reserved.</t>
+  </si>
+  <si>
+    <t>Finalist vacancies received 25th - 29th January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalist vacancies received 25th - 29th January 2016
+Dear Finalists and Postgraduates,
+Below please see vacancies received from companies during the last week, along with the closing dates:
+Job Listings:  Finalist
+Position                  |                    Company                        |                 Closing Date
+Closing next week
+Czech Republic: International Graduate Programme 2016-2018   |   Enterprise Ireland   |   Abroad   |   05/02/2016
+Closing next month
+Journalism Trainee Scheme   |   BBC   |   UK   |   08/02/2016
+Global Graduate Excellence Programme 2016   |   Mergon International   |   Ireland   |   10/02/2016
+Actuarial Graduate Vacancies   |   Joseph G. Byrne &amp; Sons Consulting Actuaries   |   Ireland   |   15/02/2016
+Graduate Modelling Engineer (6580)   |   ARM Ltd   |   UK   |   15/02/2016
+CEO- Emergis International Settlements   |   Emergis Global Capital Advisors   |   Ireland   |   29/02/2016
+Accelerated Talent Programme   |   Ingersoll Rand   |   UK   |   29/02/2016
+Cabin Crew   |   Emirates   |   Abroad   |   29/02/2016
+Technical Infrastructure Graduate Programme 2016   |   Baillie Gifford &amp; Co   |   UK   |   29/02/2016
+Support Engineer   |   Intercom   |   Ireland   |   29/02/2016
+Closing later
+Human Resources Professional   |   IBM   |   Ireland   |   01/03/2016
+Graduate Technical Solutions Engineer (Pre- Sales)   |   Microsoft Ireland    |   Ireland   |   31/03/2016
+Graduate Junior Business Development Specialist (Open to all Disciplines)   |   Microsoft Ireland    |   Ireland   |   31/03/2016
+Graduate Junior French Business Development Specialist    |   Microsoft Ireland    |   Ireland   |   31/03/2016
+Graduate Junior German Business Development Specialist   |   Microsoft Ireland    |   Ireland   |   31/03/2016
+Graduate German Technical Solutions Engineer (Pre- Sales)   |   Microsoft Ireland    |   Ireland   |   31/03/2016
+Job Listings: Short-term
+Position                  |                    Company                        |                 Closing Date
+Closing this week
+Digital Communications Intern   |   Express YOUR Gender   |   Ireland   |   31/01/2016
+Closing next week
+Visitor Service Assistants   |   Lismore Castle Arts   |   Ireland   |   03/02/2016
+Internships in the Human Rights Unit    |   Department of Foreign Affairs and Trade   |   Ireland   |   04/02/2016
+Internship   |   The Undergraduate Awards   |   Ireland   |   05/02/2016
+Closing next month
+Developer - Paid Internship   |   UniTuition   |   Ireland   |   08/02/2016
+Public Relations - Internship   |   Paul Allen &amp; Associates   |   Ireland   |   12/02/2016
+Marketing Internship   |   Paramount Pictures    |   Ireland   |   12/02/2016
+Asp.Net MVC Developer Intern   |   Localmint   |   Ireland   |   19/02/2016
+Spring and Summer Vacation Schemes (Finalists &amp; Graduates)   |   Hogan Lovells International LLP   |   UK   |   19/02/2016
+Content Creator / Editor / Designer (Part-Time)   |   DoSpace   |   Ireland   |   20/02/2016
+Closing later
+Positions and Internships in Europe   |   European Movement Ireland   |   Abroad   |   31/03/2016
+Positions and Internships in Europe   |   European Movement Ireland   |   Abroad   |   31/03/2016
+Job Listings: Research
+Position                  |                    Company                        |                 Closing Date
+Closing next week
+Postdoctoral Research Fellow   |   TobaccoFree Research Institute Ireland (TFRI)    |   Ireland   |   01/02/2016
+Summer Student Scholarships 2016   |   Health Research Board   |   Ireland   |   05/02/2016
+Closing later
+4-year Research Groups   |   Institut Pasteur   |   Abroad   |   31/03/2016
+We cannot take you off the mailing list if you do not want to receive this email – we use the class lists from ISS – so you will need to filter us out, but do remember you may miss something interesting in the future!
+Please remember to check the CAS vacancies website http://www.tcd.ie/Careers/vacancies/ for up and coming closing dates. 
+There are a number of vacancies with closing dates due, in the coming days and weeks.
+Graduate Programme 2016 (Open to all Disciplines)   |   Lakeland Dairies   |   Ireland   |   31/01/2016
+Ibec IR/HR Graduate Programme 2016   |   IBEC   |   Ireland   |   12/02/2016
+Enterprise Chief Information Officer Technology Programme - 2016   |   Bank of America Merrill Lynch   |   Ireland   |   18/02/2016
+Global Markets Technology Programme 2016   |   Bank of America Merrill Lynch   |   Ireland   |   18/02/2016
+Trinity CareerGate
+Looking to secure a summer job, an internship, or a full-time position?
+We’re happy to announce that you can now search and apply for a wide selection of international jobs by visiting Trinity CareerGate, the new international jobs portal for students of Trinity College Dublin.
+Trinity CareerGate provides information on vacancies and internships for speakers of English and many other languages, worldwide. The vacancies advertised are targeted specifically towards students and recent graduates. Visit Trinity CareerGate to search for opportunities according to your interests. Create your profile today so employers can reach </t>
+  </si>
+  <si>
+    <t>adonoghuTcd added you to QandA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adonoghuTcd added you to QandA
+You can now push to this repository.
+---
+View it on GitHub:
+https://github.com/adonoghuTcd/QandA
 </t>
   </si>
   <si>
-    <t>BodySpace</t>
-  </si>
-  <si>
-    <t>Kieran - Dude, You Didn't Log a Workout - Everything Good?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kieran - Dude, You Didn't Log a Workout - Everything Good?
-Rep Recap - 2016-01-18
-To ensure you receive our future emails, please add bodybuilding@news.bodybuilding.com to your address book.
-Dude, You Didn't Log a Workout - Everything Good?
-2016-01-18
-Man, you can keep that drive going! You didn't log a workout this week. Make sure to get back to the grind next week in order to continue obtaining your fitness goals and maintaining a healthy lifestyle.
-Weekly Activity
-SUN
-MON
-TUE
-WED
-THU
-FRI
-SAT
-HASHTAG A PIC OF YOUR #REPRECAP TO SHOW OFF YOUR PROGRESS
-Muscles Worked This Week
-GREAT WORKOUT
-GOOD WORKOUT
-NO ACTIVITY
-Tracked Cardio
-0 minutes
-KEEP TRACKING YOUR WORKOUTS WITH THE BODYSPACE APP
-FIND THE PERFECT PLAN FOR YOUR GOALS
-TRY CREATINE TO HELP PROMOTE MUSCLE STRENGTH AND RECOVERY
-The biggest enemy to a good workout is fatigue. As much as you try to fight it, eventually your muscles grow tired and your strength plummets. It could mean the end to your workout, so fight back! When you supplement with creatine, fatigue may be reduced to help you get the most out of your workouts!* Some of the main benefits creatine may promote are:
-- Improved muscular strength and output levels*
-- Reduced sensation of muscular fatigue*
-- Improved recovery rates so you can push harder in every workout*
-- Increased muscular endurance capacity*
-- Hydrated muscles for a larger and fuller appearance*
-LEARN MORE
-CHECK OUT OUR STRONGEST DEALS OF THE WEEK!
-*These statements have not been evaluated by the Food and Drug Administration. These products are not intended to diagnose, treat, cure, or prevent any disease.
-Bodybuilding.com strives to give you accurate content, including product information, policies, pricing, and visual displays. Policies, pricing, and item availability are subject to change without notice, and Bodybuilding.com reserves the right to limit quantities. Prices displayed are subject to final approval at the time of order fulfillment. While Bodybuilding.com tries in good faith to make sure that the information displayed is accurate, we are not responsible for typographical errors or technical inaccuracies.
-This message was intended for: kfraser@tcd.ie
-Unsubscribe 
-Your privacy is important to us. View our privacy policy.
-Bodybuilding.com
-5777 N. Meeker Ave. 
-Boise, ID 83713
-1-866-236-8969
+    <t>[GitHub] Subscribed to adonoghuTcd/QandA notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[GitHub] Subscribed to adonoghuTcd/QandA notifications
+Hey there, we’re just writing to let you know that you’ve been automatically subscribed to a repository on GitHub.
+adonoghuTcd/QandA created by adonoghuTcd
+https://github.com/adonoghuTcd/QandA
+You’ll receive notifications for all issues, pull requests, and comments that happen inside the repository. If you would like to stop watching this repository, you can manage your settings here:
+https://github.com/adonoghuTcd/QandA/subscription
+You can unwatch this repository immediately by clicking here:
+https://github.com/adonoghuTcd/QandA/unsubscribe_via_email/AGMycvcqQeysHYT59rDu9iPhDdPjv4uhks5pe7mdgaJpZM4DBWlB
+You were automatically subscribed because you’ve been given push access to the repository.
+Thanks!
 </t>
   </si>
   <si>
-    <t xml:space="preserve">FW: STEM Students: Full Scholarship Opportunity on the ESTEEM programme (Naughton Foundation)
+    <t xml:space="preserve">Order Receipt: 100449800149 	         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Receipt: 100449800149 	         
+** This is an automated message -- please do not reply as you will not receive a response. ** 
+Dear Kieran Fraser, 
+Thank you for your order. 
+Full details, including any required product keys and activation codes and/or download links are available online in Your Account. 
+If you are redirected to your institution's internal sign-in page, use your institution credentials. 
+Order Summary
+Order Information
+Order Number:
+100449800149
+Date Ordered:
+2016-01-29 7:52 PM
+GMT Standard Time
+Name:
+Kieran Fraser
+Email:
+kfraser@tcd.ie
+Items  (All prices are in Euros)
+Amount
+1.  DreamSpark.com code to get Microsoft Azure and more at no cost - DreamSpark - Verification code
+€0.00
+Instructions: 
+Verification code - Post-Order Instructions
+After ordering, click on the link below to find out how to redeem your DreamSpark.com verification code to get free access to the Windows Store and Windows Phone Dev Center.
+Subtotal:
+€0.00
+Taxes:
+€0.00
+Total:
+€0.00
+Please ensure all information listed above is correct and keep this receipt for your records.
+If you have any questions, please see the Help page of the WebStore. 
+http://e5.onthehub.com/d.ashx?s=7y01vfmhh5 
+Thank you, 
+Trinity College Dublin - Computer Science - DreamSpark Premium 
+http://e5.onthehub.com/d.ashx?s=x2h6rhk484 
+This message from Microsoft is an important part of a program, service, or product that you or your company purchased or participate in.
+Microsoft respects your privacy. Please read our Privacy Statement.
+This is a mandatory service communication. To set your contact preferences for other communications, visit the Promotional Communications Manager.
+Microsoft Corporation
+One Microsoft Way
+Redmond, WA 98052
 </t>
   </si>
   <si>
-    <t>secretary@trinityvdp.com</t>
-  </si>
-  <si>
-    <t>EGM | EGM | EGM</t>
-  </si>
-  <si>
-    <t>EGM | EGM | EGM
-trinity VDP
-See Hive Profile
-Hello there VDPalz!
-Two emails in a week - top notch banter, am I right?
-Joke of the Wednesday:
-What do you give a sick pig? Oink-ment 
-EGM! EGM! EGM! 
-This one brings very important information regarding the EGM. EGM stands for Extraordinary General Meeting and aims to alter things in the constitution. The reason we wish to make these alterations is to more clearly define the procedural requirements during our Annual General Meetings. 
-The AGM will take place on Thursday, 21st January in the Synge Theatre in the Arts Block at 6pm. 
-All members are invited and encouraged to attend. A minimum of 3 executive members, 5 general committee members (activity leaders) and 10 active members of the society need to be in attendance for this meeting to take place. Amendments shall be passed based on a 2/3 majority vote of those present. 
-Please find the proposed amendments at the link below. Any opinions or questions in relation to the proposed amendments may be raised at the EGM. 
-Constitution 2015:
-https://docs.google.com/document/d/1Z_7LQB_m0z9luKYDuDCahr-v6KqPtN_gy2eaN2JTUGI/edit?usp=sharing
-Proposed amendments 2016: 
-https://docs.google.com/document/d/1lN_oo8bmgf4mz_uEFwCqLNKSYm9p4RiTTiwxgYr_-4Y/edit?usp=sharing
-When: Thursday 21st January 
-What time: 6pm
-Where: Synge Theatre, Arts Block
-trinity VDP...get involved.
-Martha, Sam, Éamonn, James, Seosamh, Áine &amp; Seosamh
-www.trinityvdp.com
-Charity Reg. No. CHY 6892
-This email was sent to kfraser@tcd.ie    unsubscribe from this list</t>
-  </si>
-  <si>
-    <t>Louis Hegarty</t>
-  </si>
-  <si>
-    <t>PhD Indecision!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD Indecision!
-Very best of success to you over the coming days Kieran. 
-We'll catch up after your exams- if you want a break down in Clane, no problem- you can come and go as you please. 
-cheers
-Louis 
+    <t>Irina Maximova</t>
+  </si>
+  <si>
+    <t>Fwd: Who U R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwd: Who U R
+Hey! So, this is not quite that kind of rock I have promised to you, but it's still that singer anyway :) enjoy! 
+Oh, and the first two songs seem to have reaaally terrible quality :) 
+---------- Forwarded message ----------
+From: Olga Dobrozhan &lt;olga.dobrozhan@gmail.com&gt;
+Date: 3 October 2015 at 19:51
+Subject: Who U R
+To: "irina.maximova152@gmail.com" &lt;irina.maximova152@gmail.com&gt;
+Sent from my iPhone
+-- 
+С уважением, 
+Максимова Ирина Вячеславовна 
+тел. 89667510182
+e-mail: irina.maximova152@gmail.com
 </t>
   </si>
   <si>
-    <t>Message from Catarina Bastos</t>
-  </si>
-  <si>
-    <t>I'm fine, tired but fine. I think I can't go to newry on Friday :/</t>
-  </si>
-  <si>
-    <t>"Times Hostels" disconnected</t>
-  </si>
-  <si>
-    <t>"bitbuzz" disconnected</t>
-  </si>
-  <si>
-    <t>Springboard</t>
-  </si>
-  <si>
-    <t>Application: 202272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application: 202272
-Hi Kieran,
-The course director Eugene O’Loughlin was away for a week hence the delay in a decision for you. He has reviewed your application and he feels that you may be overqualified to do the Level 8 course as you are in the process of doing a masters. The ICT funding is for candidates who have a level 8 in a numerate or technical background but other backgrounds are considered as well. Those who already have a masters (Level 9) in a technical area are directed towards the Level 9 MSc in Data Analytics. Should you wish to do the MSc you would have to pay for it yourself and you would apply for it through the main NCI admissions department as admissions@ncirl.ie .
-Kind regards,
-Genevieve
-From: Kieran Fraser [mailto:kfraser@tcd.ie] 
-Sent: 20 January 2016 17:07
-To: Springboard &lt;Springboard@ncirl.ie&gt;
-Subject: Re: Application: 202272
+    <t>Student.Residences</t>
+  </si>
+  <si>
+    <t>Residential Rooms 2016/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential Rooms 2016/17
+Applications from continuing students for Residential Rooms for 2016/17 open at 10.00hrs on Monday 1st February and close at 17.00hrs on Friday 26th February. Applications will be accepted from all full time degree students.
+Applications must be made online at: https://accommodation.tcd.ie/StudentBookings/
+Further information may be found at: http://www.tcd.ie/accommodation/StudentsandStaff/Students/ApplyforaRoom/ and on the Accommodation Office web pages generally.
+Dr. Emma K. Stokes
+Registrar of Chambers
 </t>
   </si>
   <si>
-    <t>James McConnell: Downstairs</t>
-  </si>
-  <si>
-    <t>"BusEireann_WiFi" disconnected</t>
-  </si>
-  <si>
-    <t>Rosie King</t>
-  </si>
-  <si>
-    <t>Is Your Fitness Resolution on Track?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Your Fitness Resolution on Track?
-Hi all,
-New Class Timetable and Fitness Courses begin at Trinity Sport. Introducing Bonz Personal Training Courses, Swimming lessons, Rock Climbing Fitness and Modified Rehabilitative Pilates Course. Keeping on track with your fitness resolution has now been made a little easier.
-Don't give up; the beginning is always the hardest. Go to http://www.tcd.ie/Sport/classes/
-To book call reception 01 896 1812/3581/4823 or email rosie.king@tcd.ie or Michelle Convey conveym@tcd.ie 
-Bonz 8 Week Personal Training Courses
-1.      Beginner: Tuesday 26th January – Thursday 17th March
-Time: 7.30 am – 8.30 am
-2.      Intermediate: Wednesday 27th January – Friday 18th March
-Time: 7.30 am – 8.30 am
-3.      Lunch mixed ability: Wednesday 27th January – Friday 18th March
-Time: 12.00 pm – 1.00 pm
-4.      Lunch express mixed ability: Tuesday 22nd January – Thursday 17th March
-Time: 12.10 pm – 12.50 pm
-5.      Mixed Ability: Tuesday 26th January – Friday 18th March
-Time: 6.00 pm – 7.00 pm
-6.      Advanced: Tuesday 26th January – Thursday 17th March
-Time: Tuesday 7.00 pm – 8.00 pm &amp; Thursday 6.15 pm – 7.15 pm
-7.      Calisthenics mixed ability: Friday 29th January – Friday 18th March
-Time: 7.00 pm – 8.00 pm
-Cost:    Members €120 &amp; non-Members €140
-Calisthenics Course: Members €60 &amp; non-Members €75
-10 Week Adult Swimming Lessons
-Adult Swimming Lessons are a great introduction to swimming, whether you are looking to take the plunge as a complete beginner or you are returning to swimming and want to improve your stroke and technique.
-Non-Swimmer
-Course 1: Tuesday 26th January – Tuesday 29th March 2016
-Time: 6.00 pm – 7.00 pm
-Course 2: Thursday 28th January – Thursday 31st March 2016
-Time: 7.00 pm – 8.00 pm
-Improver 1
-Course 1: Tuesday 26th January – Tuesday 29th March 2016
-Time: 7.00pm – 8.00 pm
-Course 2: Thursday 28th January – Thursday 31st March 2016
-Time: 6.00 pm – 7.00 pm
-Improver 2
-Course 1: Tuesday 26th January – Tuesday 29th March 2016
-Time: 7.00 pm – 8.00 pm
-Course 2: Thursday 28th January – Thursday 31st March 2016
-Time: 6.00 pm – 7.00 pm
-Lane Training
-Course 1: Tuesday 26th January – Tuesday 29th March 2016
-Time: 6.00 pm – 7.00 pm
-Course 2: Thursday 28th January – Thursday 31st March 2016
-Time: 7.00 pm – 8.00 pm
-Cost:    Members €115 &amp; non-Members €155
-4 Week Rock Climbing Fitness Course
-Build a body that’s ready for peak performance with this 4-week Rock-Climbing Fitness Class. The class is structured with high energy music so you will experience the excitement of climbing the 11 metre high wall in between bootcamp exercises tailored to boost your climbing capacity! In just four weeks, you’ll build core strength, strengthen specific muscles needed for the sport and improve your climbing techniques. 
-Course 1
-Days: Tuesday and Thursday
-Dates:  26th January – 18th February
-Time:   7.30 am – 8.15 am
-Course 2
-Days: Wednesday and Friday
-Dates: 27th January – 19th February
-Time:   1.05 pm – 1.45 pm
-Cost: Member €45 &amp; non-Member €55
-Modified Rehabilitative Pilates Course
-This 4 week course places emphasis on core strength development through working the deep abdominals and spinal muscles. This is a must for those returning from injury or athletes looking to develop a high level of core and muscular strength. Suitable for all levels.
-Beginner 
-Course 1: Tues 26th January – Tues 16th February 
-Course 2: Tues 23rd February – Tues 15th March 
-Time: 4.30 pm – 5.30 pm
-Cost: Member €28 &amp; non-Member €37
-Intermediate 
-Course 1: Tues 26th January – Tues 16th February 
-Course 2: Tues 23rd February – Tues 15th March 
-Time: 8.00 pm – 9.00 pm
-Cost: Member €28 &amp; non-Member €37
-To book call reception 01 896 1812/3581/4823 or email rosie.king@tcd.ie or Michelle Convey conveym@tcd.ie 
-Rosie King,
-Sports Programme Manager,
-Corporate Services Division,
-Trinity College Dublin, the University of Dublin
-Dublin 2, Ireland.
-+353 1 896 3581
-Rosie.king@tcd.ie
-www.tcd.ie
-Trinity College Dublin, the University of Dublin is ranked 1st in Ireland 
-and in the top 100 world universities by the QS World University Rankings.
-For information on Trinity Sport please see www.tcd.ie/sport, or find us on Facebook.
+    <t xml:space="preserve">Éigse na Tríonóide- Trinity Irish Language Week  1- 5 February </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éigse na Tríonóide- Trinity Irish Language Week  1- 5 February 
+A chairde,
+Tá an-áthas ar An Cumann Gaelach, Coláiste na Tríonóide, i gcomhar le hOifig na Gaeilge agus Aontas na Mac Léinn, clár imeachtaí Éigse na Tríonóide 2016 a fhógairt. Seachtain spleodrach a bhíonn i gceist leis an Éigse gach bliain, agus muid ag ceiliúradh na Gaeilge i gcroílár Bhaile Átha Chliath. Beidh an fhéile spraíúil seo ar siúl ón Luain 1 go dtí an Aoine 5 Feabhra, agus imeachtaí ó mhaidin go hoíche inti a fhreastalaíonn ar gach cineál spéise, agus comhpháirtíochtaí spreagúla le cumainn agus le hoifigí eile sa Choláiste i gceist. I measc na mbuaicphointí a bheidh againn i mbliana ná: Turais Ailtireachta agus Ealaíne; Éigse Thuar Ceatha le Micheál Ó Conghaile agus David Norris; Éigse Liteartha ag déanamh comóradh ar 1916; Fugitive na Gaeilge agus Oíche Mhór DJ le Trinity FM!  
+Féach ar an nasc seo don chlár iomlán imeachtaí: http://www.tcd.ie/gaeloifig/eolasfaoineigse2016.php
+Tá gach ceann de na himeachtaí seo thíos saor ó tháille, oscailte do chách, agus ní gá aon rud a chur in áirithint roimh réidh: 
+Bígí linn ón 1ú lá Feabhra ar aghaidh lenár dteanga náisiúnta a cheiliúradh!
+Maria Schaler, Reachtaire an Chumainn Ghaelaigh  
+Aonghus Dwane, Oifigeach Gaeilge  
+A chairde,
+Trinity’s An Cumann Gaelach, in association with the Irish Language Office and the Students’ Union, is delighted to announce the programme of events for Éigse na Tríonóide 2016. The Éigse is a week packed with vibrant and inspiring events which aim to celebrate the Irish language in the heart of Dublin city. This exciting festival runs from Monday 1st February to Friday 5th February inclusive, and features events for many areas of interest, with exciting collaborations with other College offices and societies. Among the programme highlights this year, we will have Architectural and Art Tours; a Trinity Rainbow Celebration with Micheál Ó Conghaile agus David Norris; A Literary Evening to commemorate 1916; Fugitive na Gaeilge and a Mega DJ Night with Trinity FM!  
+See the following link for our full programme: http://www.tcd.ie/gaeloifig/eolasfaoineigse2016.php
+All of the events are free of charge, open to all, and do not require advance reservation. 
+Join us from the 1st February to celebrate our national language! 
+Maria Schaler, Auditor, An Cumann Gaelach  
+Aonghus Dwane, College Irish Language Officer  
 </t>
   </si>
   <si>
-    <t>You have a new Tinder match!</t>
-  </si>
-  <si>
-    <t>Congratulations! You have a new match.</t>
-  </si>
-  <si>
-    <t>Message from Aislinn</t>
-  </si>
-  <si>
-    <t>Yup of course I did! Haha. Yup I am locked now and we played music of my phone the whole flight home but no one minded. Haha. I am heading to coppers in about an hour I say. We have just landed in Dublin now and are going back to drop are bags of and then heading to coppers :) where are u going?</t>
-  </si>
-  <si>
-    <t>New Tinder message from Emma</t>
-  </si>
-  <si>
-    <t>Emma sent you a new message</t>
-  </si>
-  <si>
-    <t>Tcd Global Room</t>
-  </si>
-  <si>
-    <t>FW: For the attention of Non-EU/Non-EEA students re GNIB Registration</t>
-  </si>
-  <si>
-    <t>FW: For the attention of Non-EU/Non-EEA students re GNIB Registration
-For the attention of Non-EU/Non-EEA students needing to register for the first time or renew their cards this Semester.
-Dear students, 
-The Garda National Immigration Bureau (GNIB) have provided Trinity with registration dates.
-1. Dates for new GNIB registrations are here.  Please book via link and read the instructions below:
-29th January 10am – New Registrations 
-https://secure-web.cisco.com/1LsApkX-7rgipRY_iKf8QMp6miZPttajTQHfqZejy4jlgMykxrc5qSDBT2wwSqXuoFc3O0oXm57ZuIBxLauSrgtnjZaiWcRTsABqm5RP7uhI2llCxSkj8xTZTv38ni1MGiN-psPJ7LRzi3wxyanNMGesin3K-rRuzSCH_tEq939OTOnUK94fzeZi6yKZpTfly/https%3A%2F%2Fwww.eventbrite.com%2Fe%2Fgnib-trip-new-registration-trinity-college-of-dublin-tickets-20693856883 
-29th January 1pm – New Registrations 
-https://www.eventbrite.com/e/gnib-trip-new-registration-trinity-college-of-dublin-tickets-20693867916 
-5th February 10am – New Registrations 
-https://www.eventbrite.com/e/gnib-trip-new-registration-trinity-college-of-dublin-tickets-20693892991 
-10th February 10am – New Registrations 
-https://www.eventbrite.com/e/gnib-trip-new-registrations-trinity-college-of-dublin-tickets-20693958186 
-12th February 10am – New Registrations 
-https://www.eventbrite.com/e/gnib-trip-new-registrations-trinity-college-of-dublin-tickets-20693969219
-2. Renewal dates for GNIB registrations are as follows and appointments can be booked in the links below: 
-5th February 1pm – Renewals
-https://www.eventbrite.com/e/gnib-trip-renewals-trinity-college-of-dublin-tickets-20693917063
-10th February 1pm – Renewals 
-https://www.eventbrite.com/e/gnib-trip-renewals-trinity-college-of-dublin-tickets-20693929099
-2. Please go directly to the GNIB Office on Burgh Quay at your appointment time.  See handout attached with map.
-3. When you have booked into a slot for the GNIB you should bring the following:
-Eventbrite ticket as proof of appointment. This will be automatically issued and available on Eventbrite.ie immediately after you sign up for your appointment.
-Passport
-College Registration letter (please ensure that you request a GNIB letter from Academic Registry)
-Health insurance details with your name clearly stated
-Bank statement showing approx. €500 available for expenditure per month of your stay in Ireland.
-Credit / debit card. Please note there is a standard fee of €300 per registration.
-4.  If you find that all registration times are booked, please notify the TCD Global Room immediately.  Please be assured everyone will get registered. 
-Thank you 
-Global Relations Team 
-**********************************************************************************</t>
-  </si>
-  <si>
-    <t>Ya that's it! Sure let me know what the craic is later on? I will let you know when I am in coppers. It will prob be a while. Cool I might cya later on so if you are willing to trek to coppers :)</t>
-  </si>
-  <si>
-    <t>not significant</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>close friend</t>
-  </si>
-  <si>
-    <t>colleague</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>tinder</t>
-  </si>
-  <si>
-    <t>whatsapp</t>
-  </si>
-  <si>
-    <t>gmail</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>flipboard</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>MR KIERAN FRASER</t>
+  </si>
+  <si>
+    <t>myself</t>
+  </si>
+  <si>
+    <t>CS7046-A-Y-201516 (INFORMATION ARCHITECTURE): Dibs!</t>
+  </si>
+  <si>
+    <t>CS7046-A-Y-201516 (INFORMATION ARCHITECTURE): Dibs!
+Title:  "MOOCLink: Building and Utilizing Linked Data from Massive Open Online Courses"
+Authors:  Sebastian Kagemann , Srividya Bansal
+Published:  2015 IEEE 9th International Conference on Semantic Computing (IEEE ICSC 2015)
+Date: February 2015
+Link:  http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7050836 </t>
   </si>
 </sst>
 </file>
@@ -963,1122 +1024,1128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.69140625" customWidth="1"/>
-    <col min="3" max="3" width="25.3828125" customWidth="1"/>
-    <col min="5" max="5" width="41.921875" customWidth="1"/>
-    <col min="6" max="6" width="24.765625" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="1" max="1" width="26.23046875" customWidth="1"/>
+    <col min="3" max="3" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.07421875" customWidth="1"/>
+    <col min="6" max="6" width="7.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="7.23046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1">
-        <v>42389.108806273151</v>
+        <v>42398.023333310186</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1">
-        <v>42389.408667384261</v>
+        <v>42398.023599513886</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
       <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>90</v>
-      </c>
       <c r="I3" s="1">
-        <v>42389.409246087962</v>
+        <v>42398.023912013887</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>42389.409431273147</v>
+        <v>42398.02425923611</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>42389.430148865744</v>
+        <v>42398.093275439816</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1">
-        <v>42389.534847939816</v>
+        <v>42398.408506921296</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>42389.535391921294</v>
+        <v>42398.502048587965</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
-        <v>42389.53587803241</v>
+        <v>42398.568229143515</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1">
-        <v>42389.545472939812</v>
+        <v>42398.571562476849</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1">
-        <v>42389.558273865739</v>
+        <v>42398.575659699076</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1">
-        <v>42389.642567847222</v>
+        <v>42398.580092569442</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1">
-        <v>42389.654141921295</v>
+        <v>42398.586157384256</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1">
-        <v>42389.684327106479</v>
+        <v>42398.587627291665</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1">
-        <v>42389.702961365743</v>
+        <v>42398.592499976854</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
-        <v>42389.705970625</v>
+        <v>42398.633564791664</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1">
-        <v>42389.721213680554</v>
+        <v>42398.635428217596</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1">
-        <v>42389.746271550925</v>
+        <v>42398.646585625</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1">
-        <v>42389.756040069442</v>
+        <v>42398.660960624999</v>
       </c>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1">
-        <v>42389.757834050928</v>
+        <v>42398.663043958331</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1">
-        <v>42389.758331736113</v>
+        <v>42398.69754627315</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1">
-        <v>42389.77019516204</v>
+        <v>42398.699455995367</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I22" s="1">
-        <v>42389.784709050924</v>
+        <v>42398.708564791668</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I23" s="1">
-        <v>42389.810658136572</v>
+        <v>42398.717858773147</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1">
-        <v>42389.834095636572</v>
+        <v>42398.742430543978</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I25" s="1">
-        <v>42389.837660451391</v>
+        <v>42398.825219895836</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1">
-        <v>42389.844084062497</v>
+        <v>42398.826226840276</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I27" s="1">
-        <v>42389.852174340274</v>
+        <v>42398.848078692128</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I28" s="1">
-        <v>42389.901931284723</v>
+        <v>42398.888159710645</v>
       </c>
       <c r="J28" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I29" s="1">
-        <v>42389.945669710651</v>
+        <v>42398.898935173609</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I30" s="1">
-        <v>42389.947128043983</v>
+        <v>42398.944270821761</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I31" s="1">
-        <v>42389.963817858799</v>
+        <v>42398.950925914352</v>
       </c>
       <c r="J31" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1">
-        <v>42389.97090119213</v>
+        <v>42398.951944432869</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="1">
-        <v>42389.982891932872</v>
-      </c>
-      <c r="J33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="1">
-        <v>42389.983169710649</v>
-      </c>
-      <c r="J34" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="H1:H34 F1:F34">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="B1:B32">
+      <formula1>"family,close friend,colleague,stranger,acquaintance,friend,myself,automatic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J1:J32">
+      <formula1>"ocassion,holiday,not significant"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D1:D32">
+      <formula1>"facebook,gmail,tinder,android,flipboard,whatsapp,linkedin,viber,skype"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F1:F32 H1:H32">
       <formula1>"social,interest,work,android,family"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1:D34">
-      <formula1>"facebook,gmail,tinder,android,flipboard,whatsapp,linkedin,viber,skype,twitter,calendar,androidSMS,runKeeper,miscellaneous"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B1:B34">
-      <formula1>"family,close friend,colleague,stranger,acquaintance,friend,myself,automatic"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <f>COUNT(Sheet1!#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="e">
+        <f>B3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="e">
+        <f>SUM(Sheet1!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="e">
+        <f>SUM(Sheet1!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="e">
+        <f>B1-B2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="e">
+        <f>SUM(Sheet1!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>